--- a/biology/Zoologie/Eurema_pyro/Eurema_pyro.xlsx
+++ b/biology/Zoologie/Eurema_pyro/Eurema_pyro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema pyro est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema pyro a été décrit par Jean-Baptiste Godart en 1819 sous le nom initial de Pieris pyro.
-Synonyme : Colias hyona Ménétriés, 1832[1].
+Synonyme : Colias hyona Ménétriés, 1832.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,12 +582,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema pyro est présent à Haïti.
+Sur les autres projets Wikimedia :
+Eurema pyro, sur Wikimedia CommonsEurema pyro, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -601,11 +622,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema pyro est présent à Haïti[1].
-Sur les autres projets Wikimedia :
-Eurema pyro, sur Wikimedia CommonsEurema pyro, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
